--- a/VersionRecords/Version 5.0.2.4 20160929/版本Bug和特性计划及评审表v5.0.2.4_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2.4 20160929/版本Bug和特性计划及评审表v5.0.2.4_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.2.4 20160929\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -124,6 +119,22 @@
   </si>
   <si>
     <t>杨正全</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +645,6 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -642,8 +652,9 @@
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="2"/>
     <cellStyle name="常规 9" xfId="4"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -993,7 +1004,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1112,10 +1123,18 @@
       <c r="K2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="L2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="11">
+        <v>42642</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="P2" s="18">
         <v>3966</v>
       </c>
@@ -1156,10 +1175,18 @@
       <c r="K3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="L3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="11">
+        <v>42642</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="P3" s="7">
         <v>3968</v>
       </c>

--- a/VersionRecords/Version 5.0.2.4 20160929/版本Bug和特性计划及评审表v5.0.2.4_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2.4 20160929/版本Bug和特性计划及评审表v5.0.2.4_发现组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.2.4 20160929\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -459,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,14 +642,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -652,9 +652,8 @@
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="2"/>
     <cellStyle name="常规 9" xfId="4"/>
+    <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1001,10 +1000,10 @@
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1194,27 +1193,26 @@
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
-      <c r="B4" s="22"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="12"/>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="24"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
@@ -1247,10 +1245,10 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="12"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
@@ -1457,11 +1455,12 @@
       <c r="S15" s="55"/>
       <c r="T15" s="56"/>
     </row>
-    <row r="16" spans="1:20" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
-      <c r="E16" s="60"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="52"/>
       <c r="G16" s="51"/>
       <c r="H16" s="52"/>
@@ -1473,28 +1472,32 @@
       <c r="N16" s="52"/>
       <c r="O16" s="51"/>
       <c r="P16" s="58"/>
-    </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="56"/>
+    </row>
+    <row r="17" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="10"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
       <c r="M17" s="53"/>
       <c r="N17" s="52"/>
       <c r="O17" s="51"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="8"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="56"/>
     </row>
     <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
